--- a/excel-template/duty_template.xlsx
+++ b/excel-template/duty_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t xml:space="preserve">值班线名称</t>
   </si>
@@ -59,14 +59,24 @@
   <si>
     <t xml:space="preserve">yanglq</t>
   </si>
+  <si>
+    <t xml:space="preserve">小是对方是否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">斯蒂芬森的</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-804]YYYY\-M\-D"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -149,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -162,7 +172,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,15 +197,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="A2:E2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="15.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.25"/>
   </cols>
   <sheetData>
@@ -216,9 +230,7 @@
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3" t="n">
         <v>43770</v>
       </c>
@@ -227,6 +239,40 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>43800</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
